--- a/ANVNSimultaneous_4n_root_bank_thresh1.xlsx
+++ b/ANVNSimultaneous_4n_root_bank_thresh1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,10 @@
         <v>250</v>
       </c>
       <c r="C2" t="n">
-        <v>31.44</v>
+        <v>28.61</v>
       </c>
       <c r="D2" t="n">
-        <v>1941.48193359375</v>
+        <v>1596.036254882812</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>29.32</v>
+        <v>28.68</v>
       </c>
       <c r="D3" t="n">
-        <v>1893.259765625</v>
+        <v>1772.105712890625</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>34.34</v>
+        <v>29.79</v>
       </c>
       <c r="D4" t="n">
-        <v>1686.516845703125</v>
+        <v>1534.616577148438</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5</v>
+        <v>25.61</v>
       </c>
       <c r="D5" t="n">
-        <v>1535.437133789062</v>
+        <v>1437.449951171875</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>20.55</v>
+        <v>26.96</v>
       </c>
       <c r="D6" t="n">
-        <v>1369.025024414062</v>
+        <v>1279.824096679688</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>125</v>
       </c>
       <c r="C7" t="n">
-        <v>24.21</v>
+        <v>26.32</v>
       </c>
       <c r="D7" t="n">
-        <v>1195.689208984375</v>
+        <v>1158.602905273438</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>17.56</v>
+        <v>15.83</v>
       </c>
       <c r="D8" t="n">
-        <v>856.0576171875</v>
+        <v>777.8038330078125</v>
       </c>
     </row>
     <row r="9">
@@ -561,10 +561,10 @@
         <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>24.18</v>
+        <v>31.08</v>
       </c>
       <c r="D9" t="n">
-        <v>712.9657592773438</v>
+        <v>796.9323120117188</v>
       </c>
     </row>
     <row r="10">
@@ -575,10 +575,10 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>14.66</v>
+        <v>15.37</v>
       </c>
       <c r="D10" t="n">
-        <v>529.4949951171875</v>
+        <v>440.7461547851562</v>
       </c>
     </row>
     <row r="11">
@@ -589,10 +589,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65</v>
+        <v>13.57</v>
       </c>
       <c r="D11" t="n">
-        <v>187.3812713623047</v>
+        <v>221.8955841064453</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>250</v>
       </c>
       <c r="C12" t="n">
-        <v>28.64</v>
+        <v>28.92</v>
       </c>
       <c r="D12" t="n">
-        <v>1561.458618164062</v>
+        <v>1946.647827148438</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         <v>225</v>
       </c>
       <c r="C13" t="n">
-        <v>14.79</v>
+        <v>19.78</v>
       </c>
       <c r="D13" t="n">
-        <v>1884.0693359375</v>
+        <v>1768.151489257812</v>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>22.24</v>
+        <v>21.09</v>
       </c>
       <c r="D14" t="n">
-        <v>1574.471313476562</v>
+        <v>1376.125610351562</v>
       </c>
     </row>
     <row r="15">
@@ -645,10 +645,10 @@
         <v>175</v>
       </c>
       <c r="C15" t="n">
-        <v>25.77</v>
+        <v>31.1</v>
       </c>
       <c r="D15" t="n">
-        <v>1512.33740234375</v>
+        <v>1273.77294921875</v>
       </c>
     </row>
     <row r="16">
@@ -659,10 +659,10 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>27.15</v>
+        <v>24.27</v>
       </c>
       <c r="D16" t="n">
-        <v>1196.6181640625</v>
+        <v>1318.874145507812</v>
       </c>
     </row>
     <row r="17">
@@ -673,10 +673,10 @@
         <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>25.68</v>
+        <v>18.42</v>
       </c>
       <c r="D17" t="n">
-        <v>1074.912963867188</v>
+        <v>897.6038818359375</v>
       </c>
     </row>
     <row r="18">
@@ -687,10 +687,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>22.93</v>
+        <v>23.13</v>
       </c>
       <c r="D18" t="n">
-        <v>750.2333374023438</v>
+        <v>792.840087890625</v>
       </c>
     </row>
     <row r="19">
@@ -701,10 +701,10 @@
         <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>18.59</v>
+        <v>21.36</v>
       </c>
       <c r="D19" t="n">
-        <v>722.0071411132812</v>
+        <v>678.097412109375</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>21.43</v>
+        <v>18.42</v>
       </c>
       <c r="D20" t="n">
-        <v>461.9690246582031</v>
+        <v>477.7857666015625</v>
       </c>
     </row>
     <row r="21">
@@ -729,10 +729,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>19.12</v>
+        <v>13.9</v>
       </c>
       <c r="D21" t="n">
-        <v>223.5367584228516</v>
+        <v>179.2927398681641</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>29.24</v>
+        <v>33.6</v>
       </c>
       <c r="D22" t="n">
-        <v>1536.73828125</v>
+        <v>2192.203857421875</v>
       </c>
     </row>
     <row r="23">
@@ -757,10 +757,10 @@
         <v>225</v>
       </c>
       <c r="C23" t="n">
-        <v>22.36</v>
+        <v>22.47</v>
       </c>
       <c r="D23" t="n">
-        <v>1663.1064453125</v>
+        <v>1434.512573242188</v>
       </c>
     </row>
     <row r="24">
@@ -771,10 +771,10 @@
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>28.7</v>
+        <v>24.51</v>
       </c>
       <c r="D24" t="n">
-        <v>1537.611206054688</v>
+        <v>1546.330322265625</v>
       </c>
     </row>
     <row r="25">
@@ -785,10 +785,10 @@
         <v>175</v>
       </c>
       <c r="C25" t="n">
-        <v>27.91</v>
+        <v>24.41</v>
       </c>
       <c r="D25" t="n">
-        <v>1315.612182617188</v>
+        <v>1468.83642578125</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>28.25</v>
+        <v>17.26</v>
       </c>
       <c r="D26" t="n">
-        <v>1336.464111328125</v>
+        <v>997.1116333007812</v>
       </c>
     </row>
     <row r="27">
@@ -813,10 +813,10 @@
         <v>125</v>
       </c>
       <c r="C27" t="n">
-        <v>24.5</v>
+        <v>22.43</v>
       </c>
       <c r="D27" t="n">
-        <v>947.943115234375</v>
+        <v>995.9672241210938</v>
       </c>
     </row>
     <row r="28">
@@ -827,10 +827,10 @@
         <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>25.62</v>
+        <v>17.61</v>
       </c>
       <c r="D28" t="n">
-        <v>904.279296875</v>
+        <v>797.1881103515625</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>16.97</v>
+        <v>25.3</v>
       </c>
       <c r="D29" t="n">
-        <v>692.693603515625</v>
+        <v>708.4681396484375</v>
       </c>
     </row>
     <row r="30">
@@ -855,10 +855,10 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>24.9</v>
+        <v>21.82</v>
       </c>
       <c r="D30" t="n">
-        <v>479.1157836914062</v>
+        <v>455.6031188964844</v>
       </c>
     </row>
     <row r="31">
@@ -869,10 +869,10 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>15.27</v>
+        <v>14.08</v>
       </c>
       <c r="D31" t="n">
-        <v>209.9860687255859</v>
+        <v>199.0171508789062</v>
       </c>
     </row>
     <row r="32">
@@ -883,10 +883,10 @@
         <v>250</v>
       </c>
       <c r="C32" t="n">
-        <v>29.36</v>
+        <v>33.45</v>
       </c>
       <c r="D32" t="n">
-        <v>2090.063720703125</v>
+        <v>2153.435546875</v>
       </c>
     </row>
     <row r="33">
@@ -897,10 +897,10 @@
         <v>225</v>
       </c>
       <c r="C33" t="n">
-        <v>23.16</v>
+        <v>22.64</v>
       </c>
       <c r="D33" t="n">
-        <v>1622.081420898438</v>
+        <v>1661.5458984375</v>
       </c>
     </row>
     <row r="34">
@@ -911,10 +911,10 @@
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>26.51</v>
+        <v>25.94</v>
       </c>
       <c r="D34" t="n">
-        <v>1656.650146484375</v>
+        <v>1400.039794921875</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>175</v>
       </c>
       <c r="C35" t="n">
-        <v>26.23</v>
+        <v>29.77</v>
       </c>
       <c r="D35" t="n">
-        <v>1503.388427734375</v>
+        <v>1445.534545898438</v>
       </c>
     </row>
     <row r="36">
@@ -939,10 +939,10 @@
         <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>28.04</v>
+        <v>23.7</v>
       </c>
       <c r="D36" t="n">
-        <v>1290.967529296875</v>
+        <v>1289.651977539062</v>
       </c>
     </row>
     <row r="37">
@@ -953,10 +953,10 @@
         <v>125</v>
       </c>
       <c r="C37" t="n">
-        <v>27.34</v>
+        <v>18.65</v>
       </c>
       <c r="D37" t="n">
-        <v>1130.77197265625</v>
+        <v>1041.349731445312</v>
       </c>
     </row>
     <row r="38">
@@ -967,10 +967,10 @@
         <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>22.76</v>
+        <v>23.01</v>
       </c>
       <c r="D38" t="n">
-        <v>981.298583984375</v>
+        <v>842.6256713867188</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>75</v>
       </c>
       <c r="C39" t="n">
-        <v>23.24</v>
+        <v>19.96</v>
       </c>
       <c r="D39" t="n">
-        <v>615.8599853515625</v>
+        <v>658.7987060546875</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>16.34</v>
+        <v>20.18</v>
       </c>
       <c r="D40" t="n">
-        <v>447.9154968261719</v>
+        <v>467.0523376464844</v>
       </c>
     </row>
     <row r="41">
@@ -1009,10 +1009,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>18.8</v>
+        <v>18.13</v>
       </c>
       <c r="D41" t="n">
-        <v>190.4989166259766</v>
+        <v>228.4127349853516</v>
       </c>
     </row>
     <row r="42">
@@ -1023,10 +1023,10 @@
         <v>250</v>
       </c>
       <c r="C42" t="n">
-        <v>32.06</v>
+        <v>30.05</v>
       </c>
       <c r="D42" t="n">
-        <v>1774.423950195312</v>
+        <v>2001.039184570312</v>
       </c>
     </row>
     <row r="43">
@@ -1037,10 +1037,10 @@
         <v>225</v>
       </c>
       <c r="C43" t="n">
-        <v>29.53</v>
+        <v>27.97</v>
       </c>
       <c r="D43" t="n">
-        <v>1806.4130859375</v>
+        <v>1704.230224609375</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         <v>200</v>
       </c>
       <c r="C44" t="n">
-        <v>24.05</v>
+        <v>13.38</v>
       </c>
       <c r="D44" t="n">
-        <v>1742.857666015625</v>
+        <v>1428.108032226562</v>
       </c>
     </row>
     <row r="45">
@@ -1065,10 +1065,10 @@
         <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>27.51</v>
+        <v>21.71</v>
       </c>
       <c r="D45" t="n">
-        <v>1461.4443359375</v>
+        <v>1181.3369140625</v>
       </c>
     </row>
     <row r="46">
@@ -1079,10 +1079,10 @@
         <v>150</v>
       </c>
       <c r="C46" t="n">
-        <v>24.67</v>
+        <v>25.87</v>
       </c>
       <c r="D46" t="n">
-        <v>1233.155151367188</v>
+        <v>1282.381958007812</v>
       </c>
     </row>
     <row r="47">
@@ -1093,10 +1093,10 @@
         <v>125</v>
       </c>
       <c r="C47" t="n">
-        <v>27.71</v>
+        <v>26.53</v>
       </c>
       <c r="D47" t="n">
-        <v>1019.217041015625</v>
+        <v>1108.86181640625</v>
       </c>
     </row>
     <row r="48">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>24.26</v>
+        <v>27.77</v>
       </c>
       <c r="D48" t="n">
-        <v>890.9961547851562</v>
+        <v>962.8906860351562</v>
       </c>
     </row>
     <row r="49">
@@ -1121,10 +1121,10 @@
         <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>20.93</v>
+        <v>22.23</v>
       </c>
       <c r="D49" t="n">
-        <v>714.0560913085938</v>
+        <v>580.4141845703125</v>
       </c>
     </row>
     <row r="50">
@@ -1135,10 +1135,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="n">
-        <v>19.36</v>
+        <v>22.35</v>
       </c>
       <c r="D50" t="n">
-        <v>445.6453857421875</v>
+        <v>473.2038269042969</v>
       </c>
     </row>
     <row r="51">
@@ -1149,10 +1149,10 @@
         <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>13.74</v>
+        <v>20.24</v>
       </c>
       <c r="D51" t="n">
-        <v>233.3344116210938</v>
+        <v>222.4473571777344</v>
       </c>
     </row>
     <row r="52">
@@ -1163,10 +1163,10 @@
         <v>250</v>
       </c>
       <c r="C52" t="n">
-        <v>28.01</v>
+        <v>25.1</v>
       </c>
       <c r="D52" t="n">
-        <v>1627.983764648438</v>
+        <v>1639.863159179688</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>225</v>
       </c>
       <c r="C53" t="n">
-        <v>25.79</v>
+        <v>21.47</v>
       </c>
       <c r="D53" t="n">
-        <v>1779.785522460938</v>
+        <v>1636.181884765625</v>
       </c>
     </row>
     <row r="54">
@@ -1191,10 +1191,10 @@
         <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>25.87</v>
+        <v>24.82</v>
       </c>
       <c r="D54" t="n">
-        <v>1444.717041015625</v>
+        <v>1293.30419921875</v>
       </c>
     </row>
     <row r="55">
@@ -1205,10 +1205,10 @@
         <v>175</v>
       </c>
       <c r="C55" t="n">
-        <v>23.85</v>
+        <v>20.84</v>
       </c>
       <c r="D55" t="n">
-        <v>1628.853759765625</v>
+        <v>1157.138916015625</v>
       </c>
     </row>
     <row r="56">
@@ -1219,10 +1219,10 @@
         <v>150</v>
       </c>
       <c r="C56" t="n">
-        <v>29.03</v>
+        <v>21.1</v>
       </c>
       <c r="D56" t="n">
-        <v>1244.152099609375</v>
+        <v>1116.88720703125</v>
       </c>
     </row>
     <row r="57">
@@ -1233,10 +1233,10 @@
         <v>125</v>
       </c>
       <c r="C57" t="n">
-        <v>26.65</v>
+        <v>23.77</v>
       </c>
       <c r="D57" t="n">
-        <v>1123.841064453125</v>
+        <v>801.7750854492188</v>
       </c>
     </row>
     <row r="58">
@@ -1247,10 +1247,10 @@
         <v>100</v>
       </c>
       <c r="C58" t="n">
-        <v>24.91</v>
+        <v>22.3</v>
       </c>
       <c r="D58" t="n">
-        <v>948.5560913085938</v>
+        <v>923.5885009765625</v>
       </c>
     </row>
     <row r="59">
@@ -1261,10 +1261,10 @@
         <v>75</v>
       </c>
       <c r="C59" t="n">
-        <v>16.76</v>
+        <v>19.7</v>
       </c>
       <c r="D59" t="n">
-        <v>579.3947143554688</v>
+        <v>589.847412109375</v>
       </c>
     </row>
     <row r="60">
@@ -1275,10 +1275,10 @@
         <v>50</v>
       </c>
       <c r="C60" t="n">
-        <v>23.79</v>
+        <v>18.24</v>
       </c>
       <c r="D60" t="n">
-        <v>458.7851867675781</v>
+        <v>450.15380859375</v>
       </c>
     </row>
     <row r="61">
@@ -1289,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="C61" t="n">
-        <v>15.74</v>
+        <v>18.63</v>
       </c>
       <c r="D61" t="n">
-        <v>210.8762664794922</v>
+        <v>247.7771606445312</v>
       </c>
     </row>
     <row r="62">
@@ -1303,10 +1303,10 @@
         <v>250</v>
       </c>
       <c r="C62" t="n">
-        <v>22.28</v>
+        <v>24.94</v>
       </c>
       <c r="D62" t="n">
-        <v>1838.237182617188</v>
+        <v>1799.794067382812</v>
       </c>
     </row>
     <row r="63">
@@ -1317,10 +1317,10 @@
         <v>225</v>
       </c>
       <c r="C63" t="n">
-        <v>25.75</v>
+        <v>27.57</v>
       </c>
       <c r="D63" t="n">
-        <v>1778.581909179688</v>
+        <v>1706.417236328125</v>
       </c>
     </row>
     <row r="64">
@@ -1331,10 +1331,10 @@
         <v>200</v>
       </c>
       <c r="C64" t="n">
-        <v>20.25</v>
+        <v>32.54</v>
       </c>
       <c r="D64" t="n">
-        <v>945.7171630859375</v>
+        <v>1682.2939453125</v>
       </c>
     </row>
     <row r="65">
@@ -1345,10 +1345,10 @@
         <v>175</v>
       </c>
       <c r="C65" t="n">
-        <v>23.58</v>
+        <v>28.25</v>
       </c>
       <c r="D65" t="n">
-        <v>1288.491577148438</v>
+        <v>1392.674194335938</v>
       </c>
     </row>
     <row r="66">
@@ -1359,10 +1359,10 @@
         <v>150</v>
       </c>
       <c r="C66" t="n">
-        <v>21.88</v>
+        <v>29.49</v>
       </c>
       <c r="D66" t="n">
-        <v>1159.673950195312</v>
+        <v>1120.769653320312</v>
       </c>
     </row>
     <row r="67">
@@ -1373,10 +1373,10 @@
         <v>125</v>
       </c>
       <c r="C67" t="n">
-        <v>17.61</v>
+        <v>18.65</v>
       </c>
       <c r="D67" t="n">
-        <v>1040.907348632812</v>
+        <v>1127.662475585938</v>
       </c>
     </row>
     <row r="68">
@@ -1387,10 +1387,10 @@
         <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>25.68</v>
+        <v>18.44</v>
       </c>
       <c r="D68" t="n">
-        <v>824.2796630859375</v>
+        <v>814.5107421875</v>
       </c>
     </row>
     <row r="69">
@@ -1401,10 +1401,10 @@
         <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>19.14</v>
+        <v>20.06</v>
       </c>
       <c r="D69" t="n">
-        <v>695.8787231445312</v>
+        <v>674.938232421875</v>
       </c>
     </row>
     <row r="70">
@@ -1415,10 +1415,10 @@
         <v>50</v>
       </c>
       <c r="C70" t="n">
-        <v>19.98</v>
+        <v>22.2</v>
       </c>
       <c r="D70" t="n">
-        <v>445.4978332519531</v>
+        <v>449.8130187988281</v>
       </c>
     </row>
     <row r="71">
@@ -1429,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>20.73</v>
+        <v>20.08</v>
       </c>
       <c r="D71" t="n">
-        <v>212.1996002197266</v>
+        <v>219.0027465820312</v>
       </c>
     </row>
     <row r="72">
@@ -1443,10 +1443,10 @@
         <v>250</v>
       </c>
       <c r="C72" t="n">
-        <v>29.6</v>
+        <v>21.16</v>
       </c>
       <c r="D72" t="n">
-        <v>1955.990966796875</v>
+        <v>1546.493530273438</v>
       </c>
     </row>
     <row r="73">
@@ -1457,10 +1457,10 @@
         <v>225</v>
       </c>
       <c r="C73" t="n">
-        <v>22.37</v>
+        <v>18.28</v>
       </c>
       <c r="D73" t="n">
-        <v>1625.22119140625</v>
+        <v>1581.36962890625</v>
       </c>
     </row>
     <row r="74">
@@ -1471,10 +1471,10 @@
         <v>200</v>
       </c>
       <c r="C74" t="n">
-        <v>21.87</v>
+        <v>22.92</v>
       </c>
       <c r="D74" t="n">
-        <v>877.50244140625</v>
+        <v>1608.398681640625</v>
       </c>
     </row>
     <row r="75">
@@ -1485,10 +1485,10 @@
         <v>175</v>
       </c>
       <c r="C75" t="n">
-        <v>30.3</v>
+        <v>26.99</v>
       </c>
       <c r="D75" t="n">
-        <v>1548.775512695312</v>
+        <v>1491.060546875</v>
       </c>
     </row>
     <row r="76">
@@ -1499,10 +1499,10 @@
         <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>23.94</v>
+        <v>21.48</v>
       </c>
       <c r="D76" t="n">
-        <v>1279.10400390625</v>
+        <v>1118.829956054688</v>
       </c>
     </row>
     <row r="77">
@@ -1513,10 +1513,10 @@
         <v>125</v>
       </c>
       <c r="C77" t="n">
-        <v>24.58</v>
+        <v>25.88</v>
       </c>
       <c r="D77" t="n">
-        <v>1127.550537109375</v>
+        <v>1169.682983398438</v>
       </c>
     </row>
     <row r="78">
@@ -1527,10 +1527,10 @@
         <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>25.13</v>
+        <v>26.78</v>
       </c>
       <c r="D78" t="n">
-        <v>937.3278198242188</v>
+        <v>812.2249755859375</v>
       </c>
     </row>
     <row r="79">
@@ -1541,10 +1541,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="n">
-        <v>16.31</v>
+        <v>25.17</v>
       </c>
       <c r="D79" t="n">
-        <v>652.8049926757812</v>
+        <v>741.8098754882812</v>
       </c>
     </row>
     <row r="80">
@@ -1555,10 +1555,10 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>22.44</v>
+        <v>19.65</v>
       </c>
       <c r="D80" t="n">
-        <v>321.6431274414062</v>
+        <v>426.5658874511719</v>
       </c>
     </row>
     <row r="81">
@@ -1569,10 +1569,1690 @@
         <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>14.86</v>
+        <v>14.08</v>
       </c>
       <c r="D81" t="n">
-        <v>242.2283325195312</v>
+        <v>241.4126434326172</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>16</v>
+      </c>
+      <c r="B82" t="n">
+        <v>250</v>
+      </c>
+      <c r="C82" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1639.829223632812</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>16</v>
+      </c>
+      <c r="B83" t="n">
+        <v>225</v>
+      </c>
+      <c r="C83" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1446.060546875</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>200</v>
+      </c>
+      <c r="C84" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1515.081665039062</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16</v>
+      </c>
+      <c r="B85" t="n">
+        <v>175</v>
+      </c>
+      <c r="C85" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1490.905639648438</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>16</v>
+      </c>
+      <c r="B86" t="n">
+        <v>150</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1201.613159179688</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>16</v>
+      </c>
+      <c r="B87" t="n">
+        <v>125</v>
+      </c>
+      <c r="C87" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1016.069030761719</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>16</v>
+      </c>
+      <c r="B88" t="n">
+        <v>100</v>
+      </c>
+      <c r="C88" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="D88" t="n">
+        <v>876.5095825195312</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>16</v>
+      </c>
+      <c r="B89" t="n">
+        <v>75</v>
+      </c>
+      <c r="C89" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="D89" t="n">
+        <v>651.3551025390625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>16</v>
+      </c>
+      <c r="B90" t="n">
+        <v>50</v>
+      </c>
+      <c r="C90" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D90" t="n">
+        <v>469.2702026367188</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>16</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25</v>
+      </c>
+      <c r="C91" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>246.5796966552734</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>18</v>
+      </c>
+      <c r="B92" t="n">
+        <v>250</v>
+      </c>
+      <c r="C92" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2009.499633789062</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18</v>
+      </c>
+      <c r="B93" t="n">
+        <v>225</v>
+      </c>
+      <c r="C93" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1740.808227539062</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>18</v>
+      </c>
+      <c r="B94" t="n">
+        <v>200</v>
+      </c>
+      <c r="C94" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1615.88037109375</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18</v>
+      </c>
+      <c r="B95" t="n">
+        <v>175</v>
+      </c>
+      <c r="C95" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1455.076293945312</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>18</v>
+      </c>
+      <c r="B96" t="n">
+        <v>150</v>
+      </c>
+      <c r="C96" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1194.633544921875</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>18</v>
+      </c>
+      <c r="B97" t="n">
+        <v>125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D97" t="n">
+        <v>830.70556640625</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>18</v>
+      </c>
+      <c r="B98" t="n">
+        <v>100</v>
+      </c>
+      <c r="C98" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="D98" t="n">
+        <v>779.0928344726562</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18</v>
+      </c>
+      <c r="B99" t="n">
+        <v>75</v>
+      </c>
+      <c r="C99" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D99" t="n">
+        <v>682.9135131835938</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>18</v>
+      </c>
+      <c r="B100" t="n">
+        <v>50</v>
+      </c>
+      <c r="C100" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="D100" t="n">
+        <v>460.0554809570312</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>18</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25</v>
+      </c>
+      <c r="C101" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="D101" t="n">
+        <v>197.8722534179688</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20</v>
+      </c>
+      <c r="B102" t="n">
+        <v>250</v>
+      </c>
+      <c r="C102" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1563.197143554688</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20</v>
+      </c>
+      <c r="B103" t="n">
+        <v>225</v>
+      </c>
+      <c r="C103" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1865.903930664062</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20</v>
+      </c>
+      <c r="B104" t="n">
+        <v>200</v>
+      </c>
+      <c r="C104" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1478.681640625</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20</v>
+      </c>
+      <c r="B105" t="n">
+        <v>175</v>
+      </c>
+      <c r="C105" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1464.8447265625</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20</v>
+      </c>
+      <c r="B106" t="n">
+        <v>150</v>
+      </c>
+      <c r="C106" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1354.105224609375</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20</v>
+      </c>
+      <c r="B107" t="n">
+        <v>125</v>
+      </c>
+      <c r="C107" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D107" t="n">
+        <v>857.6666259765625</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20</v>
+      </c>
+      <c r="B108" t="n">
+        <v>100</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="D108" t="n">
+        <v>968.2626342773438</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20</v>
+      </c>
+      <c r="B109" t="n">
+        <v>75</v>
+      </c>
+      <c r="C109" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="D109" t="n">
+        <v>710.7529296875</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20</v>
+      </c>
+      <c r="B110" t="n">
+        <v>50</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D110" t="n">
+        <v>460.290283203125</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20</v>
+      </c>
+      <c r="B111" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="D111" t="n">
+        <v>240.2316589355469</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>22</v>
+      </c>
+      <c r="B112" t="n">
+        <v>250</v>
+      </c>
+      <c r="C112" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1433.884887695312</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>22</v>
+      </c>
+      <c r="B113" t="n">
+        <v>225</v>
+      </c>
+      <c r="C113" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="D113" t="n">
+        <v>967.690185546875</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>22</v>
+      </c>
+      <c r="B114" t="n">
+        <v>200</v>
+      </c>
+      <c r="C114" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1503.301391601562</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>22</v>
+      </c>
+      <c r="B115" t="n">
+        <v>175</v>
+      </c>
+      <c r="C115" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1314.153564453125</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>22</v>
+      </c>
+      <c r="B116" t="n">
+        <v>150</v>
+      </c>
+      <c r="C116" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1248.25830078125</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>22</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125</v>
+      </c>
+      <c r="C117" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1061.209350585938</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>22</v>
+      </c>
+      <c r="B118" t="n">
+        <v>100</v>
+      </c>
+      <c r="C118" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D118" t="n">
+        <v>922.4107666015625</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>22</v>
+      </c>
+      <c r="B119" t="n">
+        <v>75</v>
+      </c>
+      <c r="C119" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D119" t="n">
+        <v>663.720458984375</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>22</v>
+      </c>
+      <c r="B120" t="n">
+        <v>50</v>
+      </c>
+      <c r="C120" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>448.7603759765625</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>22</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="D121" t="n">
+        <v>228.4563751220703</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>24</v>
+      </c>
+      <c r="B122" t="n">
+        <v>250</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1839.19091796875</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>24</v>
+      </c>
+      <c r="B123" t="n">
+        <v>225</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1851.62353515625</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>24</v>
+      </c>
+      <c r="B124" t="n">
+        <v>200</v>
+      </c>
+      <c r="C124" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1240.288940429688</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>24</v>
+      </c>
+      <c r="B125" t="n">
+        <v>175</v>
+      </c>
+      <c r="C125" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1552.802368164062</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>24</v>
+      </c>
+      <c r="B126" t="n">
+        <v>150</v>
+      </c>
+      <c r="C126" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1318.566650390625</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>24</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="D127" t="n">
+        <v>989.7687377929688</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>24</v>
+      </c>
+      <c r="B128" t="n">
+        <v>100</v>
+      </c>
+      <c r="C128" t="n">
+        <v>17</v>
+      </c>
+      <c r="D128" t="n">
+        <v>889.9173583984375</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>24</v>
+      </c>
+      <c r="B129" t="n">
+        <v>75</v>
+      </c>
+      <c r="C129" t="n">
+        <v>21</v>
+      </c>
+      <c r="D129" t="n">
+        <v>656.6004638671875</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>24</v>
+      </c>
+      <c r="B130" t="n">
+        <v>50</v>
+      </c>
+      <c r="C130" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D130" t="n">
+        <v>518.786376953125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>24</v>
+      </c>
+      <c r="B131" t="n">
+        <v>25</v>
+      </c>
+      <c r="C131" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>246.1505889892578</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>26</v>
+      </c>
+      <c r="B132" t="n">
+        <v>250</v>
+      </c>
+      <c r="C132" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2078.40966796875</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>26</v>
+      </c>
+      <c r="B133" t="n">
+        <v>225</v>
+      </c>
+      <c r="C133" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1497.371948242188</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>26</v>
+      </c>
+      <c r="B134" t="n">
+        <v>200</v>
+      </c>
+      <c r="C134" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1322.321899414062</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>26</v>
+      </c>
+      <c r="B135" t="n">
+        <v>175</v>
+      </c>
+      <c r="C135" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1316.090209960938</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>26</v>
+      </c>
+      <c r="B136" t="n">
+        <v>150</v>
+      </c>
+      <c r="C136" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1418.058715820312</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>26</v>
+      </c>
+      <c r="B137" t="n">
+        <v>125</v>
+      </c>
+      <c r="C137" t="n">
+        <v>22</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1135.449096679688</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>26</v>
+      </c>
+      <c r="B138" t="n">
+        <v>100</v>
+      </c>
+      <c r="C138" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>891.0818481445312</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>26</v>
+      </c>
+      <c r="B139" t="n">
+        <v>75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="D139" t="n">
+        <v>597.1596069335938</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>26</v>
+      </c>
+      <c r="B140" t="n">
+        <v>50</v>
+      </c>
+      <c r="C140" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="D140" t="n">
+        <v>430.8914489746094</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>26</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="D141" t="n">
+        <v>212.67626953125</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>28</v>
+      </c>
+      <c r="B142" t="n">
+        <v>250</v>
+      </c>
+      <c r="C142" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2072.80859375</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>28</v>
+      </c>
+      <c r="B143" t="n">
+        <v>225</v>
+      </c>
+      <c r="C143" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1849.618774414062</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>28</v>
+      </c>
+      <c r="B144" t="n">
+        <v>200</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1448.719116210938</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>28</v>
+      </c>
+      <c r="B145" t="n">
+        <v>175</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1493.989013671875</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>28</v>
+      </c>
+      <c r="B146" t="n">
+        <v>150</v>
+      </c>
+      <c r="C146" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1212.252685546875</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>28</v>
+      </c>
+      <c r="B147" t="n">
+        <v>125</v>
+      </c>
+      <c r="C147" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1237.940551757812</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>28</v>
+      </c>
+      <c r="B148" t="n">
+        <v>100</v>
+      </c>
+      <c r="C148" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="D148" t="n">
+        <v>893.9658813476562</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>28</v>
+      </c>
+      <c r="B149" t="n">
+        <v>75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="D149" t="n">
+        <v>665.53369140625</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>28</v>
+      </c>
+      <c r="B150" t="n">
+        <v>50</v>
+      </c>
+      <c r="C150" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>435.4403991699219</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>28</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25</v>
+      </c>
+      <c r="C151" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="D151" t="n">
+        <v>223.3307800292969</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>30</v>
+      </c>
+      <c r="B152" t="n">
+        <v>250</v>
+      </c>
+      <c r="C152" t="n">
+        <v>31</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1824.990966796875</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>30</v>
+      </c>
+      <c r="B153" t="n">
+        <v>225</v>
+      </c>
+      <c r="C153" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1808.301879882812</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>30</v>
+      </c>
+      <c r="B154" t="n">
+        <v>200</v>
+      </c>
+      <c r="C154" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1452.803344726562</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>30</v>
+      </c>
+      <c r="B155" t="n">
+        <v>175</v>
+      </c>
+      <c r="C155" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1527.974243164062</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>30</v>
+      </c>
+      <c r="B156" t="n">
+        <v>150</v>
+      </c>
+      <c r="C156" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1221.559936523438</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>30</v>
+      </c>
+      <c r="B157" t="n">
+        <v>125</v>
+      </c>
+      <c r="C157" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1044.889282226562</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>30</v>
+      </c>
+      <c r="B158" t="n">
+        <v>100</v>
+      </c>
+      <c r="C158" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="D158" t="n">
+        <v>953.2886352539062</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>30</v>
+      </c>
+      <c r="B159" t="n">
+        <v>75</v>
+      </c>
+      <c r="C159" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="D159" t="n">
+        <v>703.8706665039062</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>30</v>
+      </c>
+      <c r="B160" t="n">
+        <v>50</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="D160" t="n">
+        <v>490.2192993164062</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>30</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25</v>
+      </c>
+      <c r="C161" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="D161" t="n">
+        <v>205.8403930664062</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>35</v>
+      </c>
+      <c r="B162" t="n">
+        <v>250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1737.996826171875</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>35</v>
+      </c>
+      <c r="B163" t="n">
+        <v>225</v>
+      </c>
+      <c r="C163" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1747.459594726562</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>35</v>
+      </c>
+      <c r="B164" t="n">
+        <v>200</v>
+      </c>
+      <c r="C164" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1307.829956054688</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>35</v>
+      </c>
+      <c r="B165" t="n">
+        <v>175</v>
+      </c>
+      <c r="C165" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1429.137939453125</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>35</v>
+      </c>
+      <c r="B166" t="n">
+        <v>150</v>
+      </c>
+      <c r="C166" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1356.971801757812</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>35</v>
+      </c>
+      <c r="B167" t="n">
+        <v>125</v>
+      </c>
+      <c r="C167" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="D167" t="n">
+        <v>969.3617553710938</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>35</v>
+      </c>
+      <c r="B168" t="n">
+        <v>100</v>
+      </c>
+      <c r="C168" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="D168" t="n">
+        <v>761.3240966796875</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>35</v>
+      </c>
+      <c r="B169" t="n">
+        <v>75</v>
+      </c>
+      <c r="C169" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="D169" t="n">
+        <v>643.8766479492188</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>35</v>
+      </c>
+      <c r="B170" t="n">
+        <v>50</v>
+      </c>
+      <c r="C170" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D170" t="n">
+        <v>509.2201843261719</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>35</v>
+      </c>
+      <c r="B171" t="n">
+        <v>25</v>
+      </c>
+      <c r="C171" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="D171" t="n">
+        <v>222.6771545410156</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>40</v>
+      </c>
+      <c r="B172" t="n">
+        <v>250</v>
+      </c>
+      <c r="C172" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1803.250732421875</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>40</v>
+      </c>
+      <c r="B173" t="n">
+        <v>225</v>
+      </c>
+      <c r="C173" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1868.533325195312</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>40</v>
+      </c>
+      <c r="B174" t="n">
+        <v>200</v>
+      </c>
+      <c r="C174" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1686.682739257812</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>40</v>
+      </c>
+      <c r="B175" t="n">
+        <v>175</v>
+      </c>
+      <c r="C175" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1368.365844726562</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>40</v>
+      </c>
+      <c r="B176" t="n">
+        <v>150</v>
+      </c>
+      <c r="C176" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1187.234008789062</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>40</v>
+      </c>
+      <c r="B177" t="n">
+        <v>125</v>
+      </c>
+      <c r="C177" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1154.767211914062</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>40</v>
+      </c>
+      <c r="B178" t="n">
+        <v>100</v>
+      </c>
+      <c r="C178" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="D178" t="n">
+        <v>848.1006469726562</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>40</v>
+      </c>
+      <c r="B179" t="n">
+        <v>75</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="D179" t="n">
+        <v>679.4746704101562</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>40</v>
+      </c>
+      <c r="B180" t="n">
+        <v>50</v>
+      </c>
+      <c r="C180" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="D180" t="n">
+        <v>463.9036254882812</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>40</v>
+      </c>
+      <c r="B181" t="n">
+        <v>25</v>
+      </c>
+      <c r="C181" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="D181" t="n">
+        <v>230.4330291748047</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>45</v>
+      </c>
+      <c r="B182" t="n">
+        <v>250</v>
+      </c>
+      <c r="C182" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1823.799560546875</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>45</v>
+      </c>
+      <c r="B183" t="n">
+        <v>225</v>
+      </c>
+      <c r="C183" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1608.048828125</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>45</v>
+      </c>
+      <c r="B184" t="n">
+        <v>200</v>
+      </c>
+      <c r="C184" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1628.60107421875</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>45</v>
+      </c>
+      <c r="B185" t="n">
+        <v>175</v>
+      </c>
+      <c r="C185" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1473.283447265625</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>45</v>
+      </c>
+      <c r="B186" t="n">
+        <v>150</v>
+      </c>
+      <c r="C186" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1374.897583007812</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>45</v>
+      </c>
+      <c r="B187" t="n">
+        <v>125</v>
+      </c>
+      <c r="C187" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="D187" t="n">
+        <v>890.5609741210938</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>45</v>
+      </c>
+      <c r="B188" t="n">
+        <v>100</v>
+      </c>
+      <c r="C188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D188" t="n">
+        <v>756.770263671875</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>45</v>
+      </c>
+      <c r="B189" t="n">
+        <v>75</v>
+      </c>
+      <c r="C189" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="D189" t="n">
+        <v>635.9702758789062</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>45</v>
+      </c>
+      <c r="B190" t="n">
+        <v>50</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="D190" t="n">
+        <v>371.7944946289062</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>45</v>
+      </c>
+      <c r="B191" t="n">
+        <v>25</v>
+      </c>
+      <c r="C191" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="D191" t="n">
+        <v>193.3759765625</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>50</v>
+      </c>
+      <c r="B192" t="n">
+        <v>250</v>
+      </c>
+      <c r="C192" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1989.290771484375</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>50</v>
+      </c>
+      <c r="B193" t="n">
+        <v>225</v>
+      </c>
+      <c r="C193" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1711.563354492188</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>50</v>
+      </c>
+      <c r="B194" t="n">
+        <v>200</v>
+      </c>
+      <c r="C194" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1341.553588867188</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>50</v>
+      </c>
+      <c r="B195" t="n">
+        <v>175</v>
+      </c>
+      <c r="C195" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1524.461059570312</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>50</v>
+      </c>
+      <c r="B196" t="n">
+        <v>150</v>
+      </c>
+      <c r="C196" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1175.181884765625</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>50</v>
+      </c>
+      <c r="B197" t="n">
+        <v>125</v>
+      </c>
+      <c r="C197" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1150.511596679688</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>50</v>
+      </c>
+      <c r="B198" t="n">
+        <v>100</v>
+      </c>
+      <c r="C198" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="D198" t="n">
+        <v>878.714599609375</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>50</v>
+      </c>
+      <c r="B199" t="n">
+        <v>75</v>
+      </c>
+      <c r="C199" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="D199" t="n">
+        <v>677.1890258789062</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>50</v>
+      </c>
+      <c r="B200" t="n">
+        <v>50</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>379.5232238769531</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>50</v>
+      </c>
+      <c r="B201" t="n">
+        <v>25</v>
+      </c>
+      <c r="C201" t="n">
+        <v>19</v>
+      </c>
+      <c r="D201" t="n">
+        <v>219.5215606689453</v>
       </c>
     </row>
   </sheetData>
